--- a/data_year/zb/教育/各级普通学校生师比.xlsx
+++ b/data_year/zb/教育/各级普通学校生师比.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,91 +478,111 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>17.21</v>
+      </c>
       <c r="C2" t="n">
-        <v>19.03</v>
+        <v>14.98</v>
       </c>
       <c r="D2" t="n">
-        <v>22.2057744484071</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>17.7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>26.1017832145315</v>
+      </c>
       <c r="F2" t="n">
-        <v>15.87</v>
+        <v>15.99</v>
       </c>
       <c r="G2" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>17.33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="I2" t="n">
+        <v>23.6611428366664</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17.28</v>
+      </c>
       <c r="C3" t="n">
-        <v>19.24</v>
+        <v>14.38</v>
       </c>
       <c r="D3" t="n">
-        <v>21.64</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>17.71</v>
+      </c>
+      <c r="E3" t="n">
+        <v>31.5322512703051</v>
+      </c>
       <c r="F3" t="n">
-        <v>16.73</v>
+        <v>15.77</v>
       </c>
       <c r="G3" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+        <v>17.42</v>
+      </c>
+      <c r="H3" t="n">
+        <v>17.4815129267551</v>
+      </c>
+      <c r="I3" t="n">
+        <v>21.5858206116549</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>17.33</v>
+      </c>
       <c r="C4" t="n">
-        <v>19.25</v>
+        <v>13.59</v>
       </c>
       <c r="D4" t="n">
-        <v>21.04</v>
+        <v>17.36</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>17.8</v>
+        <v>15.47</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
+        <v>17.52</v>
+      </c>
+      <c r="H4" t="n">
+        <v>17.98</v>
+      </c>
       <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>19.13</v>
+        <v>12.76</v>
       </c>
       <c r="D5" t="n">
-        <v>20.5</v>
+        <v>16.76</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>18.35</v>
+        <v>14.95</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>17.53</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -570,461 +590,186 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>13.15</v>
-      </c>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>18.6475678652887</v>
+        <v>12.57</v>
       </c>
       <c r="D6" t="n">
-        <v>19.9795795240955</v>
-      </c>
-      <c r="E6" t="n">
-        <v>28.13</v>
-      </c>
+        <v>16.78</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>18.6479006551713</v>
+        <v>14.44</v>
       </c>
       <c r="G6" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="H6" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19.1</v>
-      </c>
+        <v>17.68</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>14.78</v>
-      </c>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>17.8</v>
+        <v>12.41</v>
       </c>
       <c r="D7" t="n">
-        <v>19.43</v>
-      </c>
-      <c r="E7" t="n">
-        <v>31.02</v>
-      </c>
+        <v>17.05</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>18.54</v>
+        <v>14.01</v>
       </c>
       <c r="G7" t="n">
-        <v>16.85</v>
-      </c>
-      <c r="H7" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="I7" t="n">
-        <v>20.62</v>
-      </c>
+        <v>17.73</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>18.26</v>
-      </c>
+          <t>2016年</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>17.15</v>
+        <v>12.41</v>
       </c>
       <c r="D8" t="n">
-        <v>19.17</v>
-      </c>
-      <c r="E8" t="n">
-        <v>31.67</v>
-      </c>
+        <v>17.12</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>18.13</v>
+        <v>13.65</v>
       </c>
       <c r="G8" t="n">
-        <v>17.93</v>
-      </c>
-      <c r="H8" t="n">
-        <v>17.61</v>
-      </c>
-      <c r="I8" t="n">
-        <v>22.16</v>
-      </c>
+        <v>17.07</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>17.2</v>
-      </c>
+          <t>2017年</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>16.52</v>
+        <v>12.52</v>
       </c>
       <c r="D9" t="n">
-        <v>18.82</v>
-      </c>
-      <c r="E9" t="n">
-        <v>31.3938925349635</v>
-      </c>
+        <v>16.98</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>17.48</v>
+        <v>13.39</v>
       </c>
       <c r="G9" t="n">
-        <v>17.28</v>
-      </c>
-      <c r="H9" t="n">
-        <v>17.31</v>
-      </c>
-      <c r="I9" t="n">
-        <v>23.4966791939351</v>
-      </c>
+        <v>17.52</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>17.27</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>16.07</v>
+        <v>12.79</v>
       </c>
       <c r="D10" t="n">
-        <v>18.38</v>
-      </c>
-      <c r="E10" t="n">
-        <v>31.2652313295231</v>
-      </c>
+        <v>16.97</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>16.78</v>
+        <v>13.1</v>
       </c>
       <c r="G10" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="H10" t="n">
-        <v>17.21</v>
-      </c>
-      <c r="I10" t="n">
-        <v>23.4706506132638</v>
-      </c>
+        <v>17.56</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>17.35</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>15.47</v>
+        <v>12.88</v>
       </c>
       <c r="D11" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="E11" t="n">
-        <v>27.8175561023984</v>
-      </c>
+        <v>16.85</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>16.3</v>
+        <v>12.99</v>
       </c>
       <c r="G11" t="n">
-        <v>17.27</v>
-      </c>
-      <c r="H11" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="I11" t="n">
-        <v>23.6462391644454</v>
-      </c>
+        <v>17.95</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>17.21</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>14.98</v>
+        <v>12.73</v>
       </c>
       <c r="D12" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="E12" t="n">
-        <v>26.1017832145315</v>
-      </c>
+        <v>16.67</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>15.99</v>
+        <v>12.9</v>
       </c>
       <c r="G12" t="n">
-        <v>17.33</v>
-      </c>
-      <c r="H12" t="n">
-        <v>17.38</v>
-      </c>
-      <c r="I12" t="n">
-        <v>23.6611428366664</v>
-      </c>
+        <v>18.37</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>17.28</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>14.38</v>
+        <v>12.6373316249996</v>
       </c>
       <c r="D13" t="n">
-        <v>17.71</v>
-      </c>
-      <c r="E13" t="n">
-        <v>31.5322512703051</v>
-      </c>
+        <v>16.3312576250239</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>15.77</v>
+        <v>12.8431516199692</v>
       </c>
       <c r="G13" t="n">
-        <v>17.42</v>
-      </c>
-      <c r="H13" t="n">
-        <v>17.4815129267551</v>
-      </c>
-      <c r="I13" t="n">
-        <v>21.5858206116549</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>17.33</v>
-      </c>
-      <c r="C14" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="D14" t="n">
-        <v>17.36</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>15.47</v>
-      </c>
-      <c r="G14" t="n">
-        <v>17.52</v>
-      </c>
-      <c r="H14" t="n">
-        <v>17.98</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="D15" t="n">
-        <v>16.76</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>14.95</v>
-      </c>
-      <c r="G15" t="n">
-        <v>17.53</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="D16" t="n">
-        <v>16.78</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="G16" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="D17" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="n">
-        <v>14.01</v>
-      </c>
-      <c r="G17" t="n">
-        <v>17.73</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="D18" t="n">
-        <v>17.12</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="G18" t="n">
-        <v>17.07</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="D19" t="n">
-        <v>16.98</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="G19" t="n">
-        <v>17.52</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="D20" t="n">
-        <v>16.97</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="G20" t="n">
-        <v>17.56</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="D21" t="n">
-        <v>16.85</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="G21" t="n">
-        <v>17.95</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="D22" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="G22" t="n">
-        <v>18.37</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+        <v>18.5424694428237</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
